--- a/我的创作/财务/证券投资/股票/行业分类.xlsx
+++ b/我的创作/财务/证券投资/股票/行业分类.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12000"/>
+    <workbookView windowWidth="26500" windowHeight="8940" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="3" r:id="rId3"/>
+    <sheet name="分类" sheetId="1" r:id="rId1"/>
+    <sheet name="化学制剂" sheetId="2" r:id="rId2"/>
+    <sheet name="煤炭开采" sheetId="3" r:id="rId3"/>
+    <sheet name="基础化工" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="ExternalData_2" localSheetId="0">Sheet1!$A$2:$C$227</definedName>
-    <definedName name="ExternalData_1" localSheetId="2">Sheet5!$A$1:$BX$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">分类!#REF!</definedName>
+    <definedName name="ExternalData_2" localSheetId="0">分类!$A$2:$C$227</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,14 +29,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="行业1" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/leaves/Desktop/行业1.txt" tab="0" comma="1">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="行业分类" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="2" name="行业分类" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/leaves/Desktop/行业分类.txt" tab="0" comma="1">
       <textFields>
         <textField/>
@@ -47,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
   <si>
     <t>一级类目
 (总类目30个)</t>
@@ -1031,6 +1024,9 @@
   </si>
   <si>
     <t>出版</t>
+  </si>
+  <si>
+    <t>类目</t>
   </si>
 </sst>
 </file>
@@ -1038,13 +1034,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1058,11 +1062,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1073,8 +1076,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,30 +1086,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,9 +1099,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,6 +1115,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1151,7 +1161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,38 +1175,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,7 +1193,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1219,7 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,13 +1227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1251,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,13 +1287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,19 +1311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,13 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,13 +1353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,61 +1371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,26 +1424,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1485,23 +1490,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,11 +1507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,163 +1526,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1750,11 +1758,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2017,1823 +2021,1823 @@
   <sheetPr/>
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15.3303571428571" style="2" customWidth="1"/>
+    <col min="1" max="3" width="15.3303571428571" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="36" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1" t="s">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1" t="s">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1" t="s">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1" t="s">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1" t="s">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1" t="s">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1" t="s">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1" t="s">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1" t="s">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1" t="s">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1" t="s">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1" t="s">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1" t="s">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1" t="s">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1" t="s">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1" t="s">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1" t="s">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1" t="s">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1" t="s">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1" t="s">
+      <c r="A145" s="7"/>
+      <c r="B145" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1" t="s">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="7" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1" t="s">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1" t="s">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1" t="s">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1" t="s">
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1" t="s">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1" t="s">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1" t="s">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1" t="s">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1" t="s">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1" t="s">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1" t="s">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1" t="s">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1" t="s">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="7" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1" t="s">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1" t="s">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1" t="s">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1" t="s">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1" t="s">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1" t="s">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1" t="s">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1" t="s">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1" t="s">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1" t="s">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1" t="s">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1" t="s">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1" t="s">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1" t="s">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1" t="s">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1" t="s">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1" t="s">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1" t="s">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1" t="s">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1" t="s">
+      <c r="A187" s="7"/>
+      <c r="B187" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1" t="s">
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1" t="s">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1" t="s">
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1" t="s">
+      <c r="A192" s="7"/>
+      <c r="B192" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1" t="s">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1" t="s">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1" t="s">
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1" t="s">
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1" t="s">
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1" t="s">
+      <c r="A199" s="7"/>
+      <c r="B199" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1" t="s">
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1" t="s">
+      <c r="A202" s="7"/>
+      <c r="B202" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="7" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1" t="s">
+      <c r="A203" s="7"/>
+      <c r="B203" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="7" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1" t="s">
+      <c r="A204" s="7"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1" t="s">
+      <c r="A205" s="7"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1" t="s">
+      <c r="A206" s="7"/>
+      <c r="B206" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="7" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1" t="s">
+      <c r="A207" s="7"/>
+      <c r="B207" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1" t="s">
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1" t="s">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1" t="s">
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1" t="s">
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1" t="s">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1" t="s">
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="7" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1" t="s">
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1" t="s">
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1" t="s">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1" t="s">
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1" t="s">
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1" t="s">
+      <c r="A220" s="7"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1" t="s">
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="7" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1" t="s">
+      <c r="A223" s="7"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1" t="s">
+      <c r="A224" s="7"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1" t="s">
+      <c r="A225" s="7"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="7" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1" t="s">
+      <c r="A226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1" t="s">
+      <c r="A227" s="7"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3932,901 +3936,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>327</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A105:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="A180:A184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="A213:A220"/>
-    <mergeCell ref="A221:A226"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -4835,298 +3961,165 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BX1"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BY1" sqref="BY1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="5.85714285714286" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="5.85714285714286" customWidth="1"/>
-    <col min="7" max="11" width="10.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="5.85714285714286" customWidth="1"/>
-    <col min="13" max="14" width="10.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="17.3571428571429" customWidth="1"/>
-    <col min="16" max="16" width="14.9285714285714" customWidth="1"/>
-    <col min="17" max="17" width="10.1428571428571" customWidth="1"/>
-    <col min="18" max="19" width="14.9285714285714" customWidth="1"/>
-    <col min="20" max="21" width="12.5714285714286" customWidth="1"/>
-    <col min="22" max="24" width="5.85714285714286" customWidth="1"/>
-    <col min="25" max="25" width="12.5714285714286" customWidth="1"/>
-    <col min="26" max="26" width="5.85714285714286" customWidth="1"/>
-    <col min="27" max="28" width="10.1428571428571" customWidth="1"/>
-    <col min="29" max="29" width="14.9285714285714" customWidth="1"/>
-    <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="10.1428571428571" customWidth="1"/>
-    <col min="32" max="32" width="12.5714285714286" customWidth="1"/>
-    <col min="33" max="33" width="14.9285714285714" customWidth="1"/>
-    <col min="34" max="34" width="10.1428571428571" customWidth="1"/>
-    <col min="35" max="35" width="12.5714285714286" customWidth="1"/>
-    <col min="36" max="38" width="10.1428571428571" customWidth="1"/>
-    <col min="39" max="40" width="12.5714285714286" customWidth="1"/>
-    <col min="41" max="42" width="10.1428571428571" customWidth="1"/>
-    <col min="43" max="43" width="14.9285714285714" customWidth="1"/>
-    <col min="44" max="44" width="12.5714285714286" customWidth="1"/>
-    <col min="45" max="45" width="8" customWidth="1"/>
-    <col min="46" max="49" width="10.1428571428571" customWidth="1"/>
-    <col min="50" max="50" width="12.5714285714286" customWidth="1"/>
-    <col min="51" max="51" width="10.1428571428571" customWidth="1"/>
-    <col min="52" max="52" width="12.5714285714286" customWidth="1"/>
-    <col min="53" max="53" width="5.85714285714286" customWidth="1"/>
-    <col min="54" max="54" width="10.1428571428571" customWidth="1"/>
-    <col min="55" max="55" width="14.9285714285714" customWidth="1"/>
-    <col min="56" max="58" width="10.1428571428571" customWidth="1"/>
-    <col min="59" max="60" width="5.85714285714286" customWidth="1"/>
-    <col min="61" max="61" width="10.1428571428571" customWidth="1"/>
-    <col min="62" max="64" width="5.85714285714286" customWidth="1"/>
-    <col min="65" max="65" width="12.5714285714286" customWidth="1"/>
-    <col min="66" max="67" width="10.1428571428571" customWidth="1"/>
-    <col min="68" max="69" width="12.5714285714286" customWidth="1"/>
-    <col min="70" max="71" width="10.1428571428571" customWidth="1"/>
-    <col min="72" max="73" width="12.5714285714286" customWidth="1"/>
-    <col min="74" max="74" width="14.9285714285714" customWidth="1"/>
-    <col min="75" max="75" width="10.1428571428571" customWidth="1"/>
-    <col min="76" max="76" width="5.85714285714286" customWidth="1"/>
+    <col min="1" max="2" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.0714285714286" style="2"/>
+    <col min="7" max="7" width="9.14285714285714" style="3"/>
+    <col min="8" max="17" width="9.14285714285714" style="1"/>
+    <col min="18" max="19" width="12.7857142857143" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>289</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>292</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>297</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>320</v>
-      </c>
+    <row r="1" spans="1:19">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>